--- a/biology/Zoologie/Campodea/Campodea.xlsx
+++ b/biology/Zoologie/Campodea/Campodea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Campodea est un genre de diploures. 
-Décolorés, dépourvus d'yeux et vivant en contact avec un substrat humide, ces arthropodes présentent deux longs cerques multiarticulés, ressemblant assez aux antennes. Ils mesurent de 1,3 à 5 mm de longueur[3]. 
+Décolorés, dépourvus d'yeux et vivant en contact avec un substrat humide, ces arthropodes présentent deux longs cerques multiarticulés, ressemblant assez aux antennes. Ils mesurent de 1,3 à 5 mm de longueur. 
 Essentiellement détritivores, ils consomment généralement des débris végétaux et du mycélium, mais peuvent se nourrir de minuscules invertébrés. 
 Ils vivent le plus souvent en milieu forestier, sous des pierres partiellement enfoncées dans le sol. Ils craignent la sécheresse et peuvent s'enfoncer dans la terre, à la recherche d’humidité, si nécessaire.  
 </t>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (17 juillet 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (17 juillet 2016) :
 Campodea apennina Ramellini, 1998
 Campodea apula Silvestri, 1912
 Campodea aristotelis Silvestri, 1912
@@ -616,7 +630,7 @@
 Campodea westwoodi Bagnall, 1918
 Campodea wygodzinskii Rusek, 1966
 Campodea zuluetai Silvestri, 1932
-Selon Catalogue of Life                                   (17 juillet 2016)[4] :
+Selon Catalogue of Life                                   (17 juillet 2016) :
 Campodea anacua Wygodzinsky, 1944
 Campodea californiensis Hilton, 1932
 Campodea chica Wygodzinsky, 1944
@@ -654,7 +668,7 @@
 Campodea teresiae Conde &amp; Thomas, 1957
 Campodea usingeri Conde &amp; Thomas, 1957
 Campodea vagans Wygodzinsky, 1944
-Selon ITIS      (17 juillet 2016)[1] :
+Selon ITIS      (17 juillet 2016) :
 Campodea anacua Wygodzinsky, 1944
 Campodea californiensis Hilton, 1932
 Campodea chica Wygodzinsky, 1944
@@ -692,7 +706,7 @@
 Campodea teresiae Conde &amp; Thomas, 1957
 Campodea usingeri Conde &amp; Thomas, 1957
 Campodea vagans Wygodzinsky, 1944
-Selon NCBI  (17 juillet 2016)[5] :
+Selon NCBI  (17 juillet 2016) :
 Campodea augens
 Campodea fragilis
 Campodea lubbocki
@@ -700,7 +714,7 @@
 Campodea silvestrii
 Campodea suensoni
 Campodea tillyardi
-Selon Paleobiology Database                   (17 juillet 2016)[6] :
+Selon Paleobiology Database                   (17 juillet 2016) :
 Campodea darwinii
 Campodea staphylinus
 </t>
